--- a/APS1: junção do employment, gender, idh de 2007.xlsx
+++ b/APS1: junção do employment, gender, idh de 2007.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>IDH in 2007</t>
   </si>
@@ -37,30 +37,51 @@
     <t>Algeria</t>
   </si>
   <si>
+    <t>Angola</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>Armenia</t>
   </si>
   <si>
+    <t>Australia</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
     <t>Bahamas</t>
   </si>
   <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
     <t>Bangladesh</t>
   </si>
   <si>
     <t>Barbados</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
     <t>Belize</t>
   </si>
   <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t>Cape Verde</t>
   </si>
   <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -106,12 +130,21 @@
     <t>Colombia</t>
   </si>
   <si>
+    <t>Comoros</t>
+  </si>
+  <si>
     <t>Congo, Dem. Rep.</t>
   </si>
   <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -133,9 +166,15 @@
     <t>Ecuador</t>
   </si>
   <si>
+    <t>Egypt</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -154,6 +193,15 @@
     <t>France</t>
   </si>
   <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -166,6 +214,12 @@
     <t>Guatemala</t>
   </si>
   <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
     <t>Guyana</t>
   </si>
   <si>
@@ -199,9 +253,18 @@
     <t>Italy</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
@@ -223,6 +286,12 @@
     <t>Lesotho</t>
   </si>
   <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -238,12 +307,21 @@
     <t>Malawi</t>
   </si>
   <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>Malta</t>
   </si>
   <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -253,12 +331,18 @@
     <t>Moldova</t>
   </si>
   <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
     <t>Morocco</t>
   </si>
   <si>
     <t>Mozambique</t>
   </si>
   <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -295,6 +379,9 @@
     <t>Panama</t>
   </si>
   <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -322,6 +409,18 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
     <t>Slovak Republic</t>
   </si>
   <si>
@@ -340,6 +439,9 @@
     <t>Spain</t>
   </si>
   <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -361,21 +463,39 @@
     <t>Tajikistan</t>
   </si>
   <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
     <t>Turkey</t>
   </si>
   <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -389,6 +509,18 @@
   </si>
   <si>
     <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -746,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -813,13 +945,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.792</v>
-      </c>
-      <c r="C5">
-        <v>1.05</v>
+        <v>0.468</v>
       </c>
       <c r="D5">
-        <v>31.4</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -827,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.721</v>
+        <v>0.792</v>
       </c>
       <c r="C6">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="D6">
-        <v>19.4</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -841,13 +970,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.864</v>
+        <v>0.721</v>
       </c>
       <c r="C7">
-        <v>0.969</v>
+        <v>1.01</v>
       </c>
       <c r="D7">
-        <v>47.4</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -855,13 +984,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.791</v>
-      </c>
-      <c r="C8">
-        <v>1.01</v>
+        <v>0.921</v>
       </c>
       <c r="D8">
-        <v>40.5</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -869,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>0.864</v>
       </c>
       <c r="C9">
-        <v>1.07</v>
+        <v>0.969</v>
       </c>
       <c r="D9">
-        <v>46.2</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -883,13 +1009,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.775</v>
-      </c>
-      <c r="C10">
-        <v>1.01</v>
+        <v>0.719</v>
       </c>
       <c r="D10">
-        <v>38.7</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -897,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.874</v>
+        <v>0.791</v>
       </c>
       <c r="C11">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="D11">
-        <v>23.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -911,13 +1034,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.699</v>
-      </c>
-      <c r="C12">
-        <v>1.01</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D12">
-        <v>28.7</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -925,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.632</v>
+        <v>0.52</v>
       </c>
       <c r="C13">
-        <v>0.978</v>
+        <v>1.07</v>
       </c>
       <c r="D13">
-        <v>40.5</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -939,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.646</v>
+        <v>0.775</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D14">
-        <v>23.5</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -953,13 +1073,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.704</v>
-      </c>
-      <c r="C15">
-        <v>1.04</v>
+        <v>0.755</v>
       </c>
       <c r="D15">
-        <v>42.9</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -967,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.84</v>
+        <v>0.874</v>
       </c>
       <c r="C16">
-        <v>0.984</v>
+        <v>1.08</v>
       </c>
       <c r="D16">
-        <v>38.2</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -981,13 +1098,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.761</v>
+        <v>0.699</v>
       </c>
       <c r="C17">
-        <v>0.969</v>
+        <v>1.01</v>
       </c>
       <c r="D17">
-        <v>22.2</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -995,27 +1112,21 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.345</v>
-      </c>
-      <c r="C18">
-        <v>0.8179999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="D18">
-        <v>70.59999999999999</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>0.319</v>
-      </c>
       <c r="C19">
-        <v>0.869</v>
+        <v>0.974</v>
       </c>
       <c r="D19">
-        <v>73.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1023,13 +1134,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.511</v>
+        <v>0.632</v>
       </c>
       <c r="C20">
-        <v>0.904</v>
+        <v>0.978</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1037,13 +1148,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.466</v>
+        <v>0.646</v>
       </c>
       <c r="C21">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>27.4</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1051,13 +1162,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.897</v>
+        <v>0.704</v>
       </c>
       <c r="C22">
-        <v>0.986</v>
+        <v>1.04</v>
       </c>
       <c r="D22">
-        <v>61.6</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1065,13 +1176,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.615</v>
+        <v>0.84</v>
       </c>
       <c r="C23">
-        <v>1.05</v>
+        <v>0.984</v>
       </c>
       <c r="D23">
-        <v>30.3</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1079,13 +1190,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.338</v>
+        <v>0.761</v>
       </c>
       <c r="C24">
-        <v>0.646</v>
+        <v>0.969</v>
       </c>
       <c r="D24">
-        <v>53.1</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1093,13 +1204,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.804</v>
+        <v>0.345</v>
       </c>
       <c r="C25">
-        <v>0.987</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D25">
-        <v>17.6</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1107,13 +1218,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.672</v>
+        <v>0.319</v>
       </c>
       <c r="C26">
-        <v>0.993</v>
+        <v>0.869</v>
       </c>
       <c r="D26">
-        <v>60.4</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1121,13 +1232,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6830000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="C27">
-        <v>1.05</v>
+        <v>0.904</v>
       </c>
       <c r="D27">
-        <v>38.1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1135,13 +1246,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.377</v>
+        <v>0.466</v>
       </c>
       <c r="C28">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="D28">
-        <v>50.1</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1149,13 +1260,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.74</v>
+        <v>0.897</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="D29">
-        <v>31.8</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1163,13 +1274,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="C30">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="D30">
-        <v>25.8</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1177,13 +1288,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.771</v>
-      </c>
-      <c r="C31">
-        <v>0.993</v>
+        <v>0.338</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1191,13 +1299,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.844</v>
+        <v>0.338</v>
       </c>
       <c r="C32">
-        <v>1.01</v>
+        <v>0.646</v>
       </c>
       <c r="D32">
-        <v>34.5</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1205,13 +1313,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.856</v>
+        <v>0.804</v>
       </c>
       <c r="C33">
-        <v>1.01</v>
+        <v>0.987</v>
       </c>
       <c r="D33">
-        <v>25.8</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1219,13 +1327,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.906</v>
+        <v>0.672</v>
       </c>
       <c r="C34">
-        <v>1.02</v>
+        <v>0.993</v>
       </c>
       <c r="D34">
-        <v>62</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1233,13 +1341,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.6919999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C35">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="D35">
-        <v>22.5</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1247,13 +1355,10 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.698</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+        <v>0.461</v>
       </c>
       <c r="D36">
-        <v>28.9</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1261,13 +1366,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.659</v>
+        <v>0.377</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="D37">
-        <v>28.7</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1275,13 +1380,10 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.406</v>
-      </c>
-      <c r="C38">
-        <v>0.787</v>
+        <v>0.527</v>
       </c>
       <c r="D38">
-        <v>42.9</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1289,13 +1391,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.835</v>
+        <v>0.74</v>
       </c>
       <c r="C39">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>26.9</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1303,13 +1405,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.378</v>
-      </c>
-      <c r="C40">
-        <v>0.836</v>
+        <v>0.423</v>
       </c>
       <c r="D40">
-        <v>68</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1317,13 +1416,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C41">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="D41">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1331,13 +1430,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.876</v>
+        <v>0.771</v>
       </c>
       <c r="C42">
-        <v>1.02</v>
+        <v>0.993</v>
       </c>
       <c r="D42">
-        <v>44.1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1345,13 +1444,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.877</v>
+        <v>0.844</v>
       </c>
       <c r="C43">
-        <v>0.996</v>
+        <v>1.01</v>
       </c>
       <c r="D43">
-        <v>25.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1359,13 +1458,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.903</v>
+        <v>0.856</v>
       </c>
       <c r="C44">
-        <v>0.982</v>
+        <v>1.01</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1373,13 +1472,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.53</v>
+        <v>0.906</v>
       </c>
       <c r="C45">
-        <v>0.9429999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="D45">
-        <v>42.1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1387,13 +1486,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.853</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C46">
-        <v>0.952</v>
+        <v>1.04</v>
       </c>
       <c r="D46">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1401,13 +1500,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.589</v>
+        <v>0.698</v>
       </c>
       <c r="C47">
-        <v>0.948</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>34.2</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1415,13 +1514,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.618</v>
-      </c>
-      <c r="C48">
-        <v>0.988</v>
+        <v>0.651</v>
       </c>
       <c r="D48">
-        <v>19.4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1429,13 +1525,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.597</v>
+        <v>0.659</v>
       </c>
       <c r="C49">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>23.7</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1443,13 +1539,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="C50">
-        <v>0.991</v>
+        <v>0.592</v>
       </c>
       <c r="D50">
-        <v>18.7</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1457,13 +1550,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.892</v>
+        <v>0.406</v>
       </c>
       <c r="C51">
-        <v>1.03</v>
+        <v>0.787</v>
       </c>
       <c r="D51">
-        <v>68.7</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1471,13 +1564,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.556</v>
+        <v>0.835</v>
       </c>
       <c r="C52">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="D52">
-        <v>21.4</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1485,13 +1578,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.641</v>
+        <v>0.378</v>
       </c>
       <c r="C53">
-        <v>0.982</v>
+        <v>0.836</v>
       </c>
       <c r="D53">
-        <v>32.7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1499,13 +1592,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.716</v>
+        <v>0.7</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="D54">
-        <v>23.7</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1513,13 +1606,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.638</v>
+        <v>0.876</v>
       </c>
       <c r="C55">
-        <v>0.8139999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="D55">
-        <v>6.2</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1527,13 +1620,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.908</v>
+        <v>0.877</v>
       </c>
       <c r="C56">
-        <v>1.02</v>
+        <v>0.996</v>
       </c>
       <c r="D56">
-        <v>42.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1541,13 +1634,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.877</v>
-      </c>
-      <c r="C57">
-        <v>1.01</v>
+        <v>0.651</v>
       </c>
       <c r="D57">
-        <v>28.4</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1555,13 +1645,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.866</v>
-      </c>
-      <c r="C58">
-        <v>0.989</v>
+        <v>0.426</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1569,13 +1656,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.88</v>
-      </c>
-      <c r="C59">
-        <v>1.01</v>
+        <v>0.735</v>
       </c>
       <c r="D59">
-        <v>41.3</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1583,13 +1667,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.506</v>
+        <v>0.903</v>
       </c>
       <c r="C60">
-        <v>0.952</v>
+        <v>0.982</v>
       </c>
       <c r="D60">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1597,13 +1681,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.787</v>
+        <v>0.53</v>
       </c>
       <c r="C61">
-        <v>1.02</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D61">
-        <v>24.3</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1611,13 +1695,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.624</v>
+        <v>0.853</v>
       </c>
       <c r="C62">
-        <v>0.997</v>
+        <v>0.952</v>
       </c>
       <c r="D62">
-        <v>30.8</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1625,13 +1709,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.518</v>
+        <v>0.589</v>
       </c>
       <c r="C63">
-        <v>0.853</v>
+        <v>0.948</v>
       </c>
       <c r="D63">
-        <v>71.40000000000001</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1639,13 +1723,10 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.819</v>
-      </c>
-      <c r="C64">
-        <v>0.998</v>
+        <v>0.371</v>
       </c>
       <c r="D64">
-        <v>31.1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1653,13 +1734,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.74</v>
-      </c>
-      <c r="C65">
-        <v>0.957</v>
+        <v>0.398</v>
       </c>
       <c r="D65">
-        <v>11.7</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1667,13 +1745,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.447</v>
+        <v>0.618</v>
       </c>
       <c r="C66">
-        <v>1.05</v>
+        <v>0.988</v>
       </c>
       <c r="D66">
-        <v>35.4</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1681,13 +1759,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.82</v>
+        <v>0.597</v>
       </c>
       <c r="C67">
-        <v>0.994</v>
+        <v>1.07</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1695,13 +1773,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.887</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C68">
-        <v>1.02</v>
+        <v>0.991</v>
       </c>
       <c r="D68">
-        <v>22.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1709,13 +1787,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.714</v>
+        <v>0.892</v>
       </c>
       <c r="C69">
-        <v>0.966</v>
+        <v>1.03</v>
       </c>
       <c r="D69">
-        <v>11.1</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1723,13 +1801,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.491</v>
+        <v>0.556</v>
       </c>
       <c r="C70">
-        <v>0.964</v>
+        <v>0.93</v>
       </c>
       <c r="D70">
-        <v>68.90000000000001</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1737,13 +1815,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4</v>
+        <v>0.641</v>
       </c>
       <c r="C71">
-        <v>0.984</v>
+        <v>0.982</v>
       </c>
       <c r="D71">
-        <v>52</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1751,13 +1829,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.36</v>
+        <v>0.716</v>
       </c>
       <c r="C72">
-        <v>0.778</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>28.4</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1765,13 +1843,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.8129999999999999</v>
+        <v>0.638</v>
       </c>
       <c r="C73">
-        <v>0.974</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D73">
-        <v>45.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1779,13 +1857,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.728</v>
+        <v>0.908</v>
       </c>
       <c r="C74">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1793,13 +1871,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.735</v>
+        <v>0.877</v>
       </c>
       <c r="C75">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="D75">
-        <v>30.8</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1807,13 +1885,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.661</v>
+        <v>0.866</v>
       </c>
       <c r="C76">
-        <v>1.02</v>
+        <v>0.989</v>
       </c>
       <c r="D76">
-        <v>16.3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1821,13 +1899,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.589</v>
-      </c>
-      <c r="C77">
-        <v>0.895</v>
+        <v>0.718</v>
       </c>
       <c r="D77">
-        <v>18.3</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1835,13 +1910,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.372</v>
+        <v>0.88</v>
       </c>
       <c r="C78">
-        <v>0.852</v>
+        <v>1.01</v>
       </c>
       <c r="D78">
-        <v>73.90000000000001</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1849,13 +1924,10 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.589</v>
-      </c>
-      <c r="C79">
-        <v>1.02</v>
+        <v>0.739</v>
       </c>
       <c r="D79">
-        <v>12.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1863,13 +1935,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.492</v>
-      </c>
-      <c r="C80">
-        <v>0.9389999999999999</v>
+        <v>0.758</v>
       </c>
       <c r="D80">
-        <v>45.6</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1877,13 +1946,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.905</v>
+        <v>0.506</v>
       </c>
       <c r="C81">
-        <v>0.981</v>
+        <v>0.952</v>
       </c>
       <c r="D81">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1891,13 +1960,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.894</v>
+        <v>0.787</v>
       </c>
       <c r="C82">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D82">
-        <v>53.7</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1905,13 +1974,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.607</v>
+        <v>0.624</v>
       </c>
       <c r="C83">
-        <v>1.04</v>
+        <v>0.997</v>
       </c>
       <c r="D83">
-        <v>25.6</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1919,13 +1988,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.298</v>
+        <v>0.518</v>
       </c>
       <c r="C84">
-        <v>0.702</v>
+        <v>0.853</v>
       </c>
       <c r="D84">
-        <v>33.5</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1933,13 +2002,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.481</v>
+        <v>0.819</v>
       </c>
       <c r="C85">
-        <v>0.856</v>
+        <v>0.998</v>
       </c>
       <c r="D85">
-        <v>16.7</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1947,13 +2016,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.9360000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="C86">
-        <v>0.994</v>
+        <v>0.957</v>
       </c>
       <c r="D86">
-        <v>57</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1961,13 +2030,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.765</v>
+        <v>0.447</v>
       </c>
       <c r="C87">
-        <v>0.992</v>
+        <v>1.05</v>
       </c>
       <c r="D87">
-        <v>18.2</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1975,13 +2044,10 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.513</v>
-      </c>
-      <c r="C88">
-        <v>0.804</v>
+        <v>0.394</v>
       </c>
       <c r="D88">
-        <v>16.2</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1989,13 +2055,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.661</v>
-      </c>
-      <c r="C89">
-        <v>1.04</v>
+        <v>0.757</v>
       </c>
       <c r="D89">
-        <v>4.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2003,13 +2066,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D90">
-        <v>26.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2017,13 +2080,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.654</v>
+        <v>0.887</v>
       </c>
       <c r="C91">
-        <v>0.995</v>
+        <v>1.02</v>
       </c>
       <c r="D91">
-        <v>52.4</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2031,13 +2094,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.7</v>
+        <v>0.714</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0.966</v>
       </c>
       <c r="D92">
-        <v>44</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2045,13 +2108,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.655</v>
+        <v>0.491</v>
       </c>
       <c r="C93">
-        <v>1.02</v>
+        <v>0.964</v>
       </c>
       <c r="D93">
-        <v>31.5</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2059,13 +2122,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.8129999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="C94">
-        <v>0.992</v>
+        <v>0.984</v>
       </c>
       <c r="D94">
-        <v>22.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2073,13 +2136,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.804</v>
-      </c>
-      <c r="C95">
-        <v>1.01</v>
+        <v>0.747</v>
       </c>
       <c r="D95">
-        <v>30.9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2087,13 +2147,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.825</v>
-      </c>
-      <c r="C96">
-        <v>1.11</v>
+        <v>0.641</v>
       </c>
       <c r="D96">
-        <v>12.8</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2101,13 +2158,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.78</v>
+        <v>0.36</v>
       </c>
       <c r="C97">
-        <v>0.997</v>
+        <v>0.778</v>
       </c>
       <c r="D97">
-        <v>21</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2115,13 +2172,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.769</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="C98">
-        <v>0.988</v>
+        <v>0.974</v>
       </c>
       <c r="D98">
-        <v>30.2</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2129,13 +2186,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.438</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="D99">
-        <v>65.90000000000001</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2143,13 +2197,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.8129999999999999</v>
+        <v>0.728</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D100">
-        <v>27.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2157,13 +2211,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.869</v>
+        <v>0.735</v>
       </c>
       <c r="C101">
-        <v>0.989</v>
+        <v>1.03</v>
       </c>
       <c r="D101">
-        <v>27.8</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2171,13 +2225,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.489</v>
+        <v>0.661</v>
       </c>
       <c r="C102">
-        <v>0.92</v>
+        <v>1.02</v>
       </c>
       <c r="D102">
-        <v>45.9</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2185,13 +2239,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.616</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
+        <v>0.673</v>
       </c>
       <c r="D103">
-        <v>12.3</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2199,13 +2250,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.873</v>
+        <v>0.589</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.895</v>
       </c>
       <c r="D104">
-        <v>32.8</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2213,13 +2264,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.854</v>
+        <v>0.372</v>
       </c>
       <c r="C105">
-        <v>1.03</v>
+        <v>0.852</v>
       </c>
       <c r="D105">
-        <v>31.8</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2227,13 +2278,10 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.444</v>
-      </c>
-      <c r="C106">
-        <v>0.86</v>
+        <v>0.493</v>
       </c>
       <c r="D106">
-        <v>18.4</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2241,13 +2289,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.6909999999999999</v>
+        <v>0.589</v>
       </c>
       <c r="C107">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="D107">
-        <v>7.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2255,13 +2303,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.514</v>
+        <v>0.492</v>
       </c>
       <c r="C108">
-        <v>0.92</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D108">
-        <v>25.1</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2269,13 +2317,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.897</v>
+        <v>0.905</v>
       </c>
       <c r="C109">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="D109">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2283,13 +2331,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.914</v>
+        <v>0.894</v>
       </c>
       <c r="C110">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="D110">
-        <v>61.5</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2297,13 +2345,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.651</v>
+        <v>0.607</v>
       </c>
       <c r="C111">
-        <v>0.982</v>
+        <v>1.04</v>
       </c>
       <c r="D111">
-        <v>14.6</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2311,13 +2359,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.592</v>
+        <v>0.298</v>
       </c>
       <c r="C112">
-        <v>0.892</v>
+        <v>0.702</v>
       </c>
       <c r="D112">
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2325,13 +2373,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.7</v>
+        <v>0.481</v>
       </c>
       <c r="C113">
-        <v>1.02</v>
+        <v>0.856</v>
       </c>
       <c r="D113">
-        <v>39.3</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2339,13 +2387,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.441</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="C114">
-        <v>0.757</v>
+        <v>0.994</v>
       </c>
       <c r="D114">
-        <v>40.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2353,13 +2401,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.705</v>
+        <v>0.765</v>
       </c>
       <c r="C115">
-        <v>0.907</v>
+        <v>0.992</v>
       </c>
       <c r="D115">
-        <v>19.7</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2367,13 +2415,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.453</v>
+        <v>0.513</v>
       </c>
       <c r="C116">
-        <v>0.979</v>
+        <v>0.804</v>
       </c>
       <c r="D116">
-        <v>74.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2381,13 +2429,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.73</v>
+        <v>0.661</v>
       </c>
       <c r="C117">
-        <v>0.997</v>
+        <v>1.04</v>
       </c>
       <c r="D117">
-        <v>30.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2395,13 +2443,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.892</v>
+        <v>0.75</v>
       </c>
       <c r="C118">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>55.1</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2409,13 +2457,10 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.905</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
+        <v>0.469</v>
       </c>
       <c r="D119">
-        <v>51</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2423,13 +2468,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.77</v>
+        <v>0.654</v>
       </c>
       <c r="C120">
-        <v>0.979</v>
+        <v>0.995</v>
       </c>
       <c r="D120">
-        <v>30.1</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2437,13 +2482,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.644</v>
+        <v>0.7</v>
       </c>
       <c r="C121">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2451,13 +2496,581 @@
         <v>124</v>
       </c>
       <c r="B122">
+        <v>0.655</v>
+      </c>
+      <c r="C122">
+        <v>1.02</v>
+      </c>
+      <c r="D122">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C123">
+        <v>0.992</v>
+      </c>
+      <c r="D123">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124">
+        <v>0.804</v>
+      </c>
+      <c r="C124">
+        <v>1.01</v>
+      </c>
+      <c r="D124">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125">
+        <v>0.825</v>
+      </c>
+      <c r="C125">
+        <v>1.11</v>
+      </c>
+      <c r="D125">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126">
+        <v>0.78</v>
+      </c>
+      <c r="C126">
+        <v>0.997</v>
+      </c>
+      <c r="D126">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127">
+        <v>0.769</v>
+      </c>
+      <c r="C127">
+        <v>0.988</v>
+      </c>
+      <c r="D127">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128">
+        <v>0.438</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>65.90000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129">
+        <v>0.779</v>
+      </c>
+      <c r="D129">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130">
+        <v>0.435</v>
+      </c>
+      <c r="D130">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131">
+        <v>0.367</v>
+      </c>
+      <c r="D131">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132">
+        <v>0.88</v>
+      </c>
+      <c r="D132">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134">
+        <v>0.869</v>
+      </c>
+      <c r="C134">
+        <v>0.989</v>
+      </c>
+      <c r="D134">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135">
+        <v>0.489</v>
+      </c>
+      <c r="C135">
+        <v>0.92</v>
+      </c>
+      <c r="D135">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136">
+        <v>0.616</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137">
+        <v>0.873</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138">
+        <v>0.854</v>
+      </c>
+      <c r="C138">
+        <v>1.03</v>
+      </c>
+      <c r="D138">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139">
+        <v>0.731</v>
+      </c>
+      <c r="D139">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140">
+        <v>0.444</v>
+      </c>
+      <c r="C140">
+        <v>0.86</v>
+      </c>
+      <c r="D140">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C141">
+        <v>1.12</v>
+      </c>
+      <c r="D141">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142">
+        <v>0.514</v>
+      </c>
+      <c r="C142">
+        <v>0.92</v>
+      </c>
+      <c r="D142">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143">
+        <v>0.897</v>
+      </c>
+      <c r="C143">
+        <v>0.995</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144">
+        <v>0.914</v>
+      </c>
+      <c r="C144">
+        <v>0.97</v>
+      </c>
+      <c r="D144">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>0.651</v>
+      </c>
+      <c r="C145">
+        <v>0.982</v>
+      </c>
+      <c r="D145">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146">
+        <v>0.592</v>
+      </c>
+      <c r="C146">
+        <v>0.892</v>
+      </c>
+      <c r="D146">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147">
+        <v>0.468</v>
+      </c>
+      <c r="D147">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>0.7</v>
+      </c>
+      <c r="C148">
+        <v>1.02</v>
+      </c>
+      <c r="D148">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="D149">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150">
+        <v>0.441</v>
+      </c>
+      <c r="C150">
+        <v>0.757</v>
+      </c>
+      <c r="D150">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151">
+        <v>0.767</v>
+      </c>
+      <c r="D151">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>0.701</v>
+      </c>
+      <c r="D152">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153">
+        <v>0.705</v>
+      </c>
+      <c r="C153">
+        <v>0.907</v>
+      </c>
+      <c r="D153">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155">
+        <v>0.453</v>
+      </c>
+      <c r="C155">
+        <v>0.979</v>
+      </c>
+      <c r="D155">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156">
+        <v>0.73</v>
+      </c>
+      <c r="C156">
+        <v>0.997</v>
+      </c>
+      <c r="D156">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157">
+        <v>0.829</v>
+      </c>
+      <c r="D157">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158">
+        <v>0.892</v>
+      </c>
+      <c r="C158">
+        <v>1.01</v>
+      </c>
+      <c r="D158">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159">
+        <v>0.905</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160">
+        <v>0.77</v>
+      </c>
+      <c r="C160">
+        <v>0.979</v>
+      </c>
+      <c r="D160">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161">
+        <v>0.644</v>
+      </c>
+      <c r="C161">
+        <v>0.99</v>
+      </c>
+      <c r="D161">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162">
         <v>0.745</v>
       </c>
-      <c r="C122">
+      <c r="C162">
         <v>1.03</v>
       </c>
-      <c r="D122">
+      <c r="D162">
         <v>24.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163">
+        <v>0.633</v>
+      </c>
+      <c r="D163">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164">
+        <v>0.48</v>
+      </c>
+      <c r="D164">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>0.504</v>
+      </c>
+      <c r="D165">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166">
+        <v>0.421</v>
+      </c>
+      <c r="D166">
+        <v>45.4</v>
       </c>
     </row>
   </sheetData>
